--- a/Input/Makemytripinput.xlsx
+++ b/Input/Makemytripinput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prsus\eclipse-workspace\MavenMainProject\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FD20B1-F7C5-4677-A5FE-858CADF0E9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD55EF5-C7E8-4C4E-AFF1-20649F619D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>MAA</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -88,6 +85,9 @@
   </si>
   <si>
     <t>899</t>
+  </si>
+  <si>
+    <t>29</t>
   </si>
 </sst>
 </file>
@@ -437,7 +437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFE221E-3E68-41A8-B002-9A49AD4C612B}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -449,19 +449,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -484,7 +484,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -496,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,19 +510,19 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -540,7 +540,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -568,19 +568,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
